--- a/sample_data/sample_input.xlsx
+++ b/sample_data/sample_input.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RYZEN\Desktop\Task\CutOptimizer\sample_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399A28CC-F9A5-4CC0-B590-2FA2208D4877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,13 +58,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,7 +110,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -130,6 +144,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -164,9 +179,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -339,14 +355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="A8:E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>126</v>
       </c>
@@ -357,7 +375,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>133</v>
       </c>
@@ -368,7 +386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>145</v>
       </c>
@@ -379,7 +397,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>160</v>
       </c>
@@ -390,7 +408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>168</v>
       </c>
@@ -401,7 +419,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>200</v>
       </c>
@@ -412,7 +430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>210</v>
       </c>
@@ -421,193 +439,6 @@
       </c>
       <c r="C7">
         <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>210</v>
-      </c>
-      <c r="B8">
-        <v>285</v>
-      </c>
-      <c r="C8">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>250</v>
-      </c>
-      <c r="B9">
-        <v>300</v>
-      </c>
-      <c r="C9">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>260</v>
-      </c>
-      <c r="B10">
-        <v>350</v>
-      </c>
-      <c r="C10">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>294</v>
-      </c>
-      <c r="B11">
-        <v>370</v>
-      </c>
-      <c r="C11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>315</v>
-      </c>
-      <c r="B12">
-        <v>400</v>
-      </c>
-      <c r="C12">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>45</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>80</v>
-      </c>
-      <c r="B14">
-        <v>150</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>84</v>
-      </c>
-      <c r="B15">
-        <v>120</v>
-      </c>
-      <c r="C15">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>178</v>
-      </c>
-      <c r="B16">
-        <v>120</v>
-      </c>
-      <c r="C16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>241</v>
-      </c>
-      <c r="B17">
-        <v>160</v>
-      </c>
-      <c r="C17">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>242</v>
-      </c>
-      <c r="B18">
-        <v>160</v>
-      </c>
-      <c r="C18">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>263</v>
-      </c>
-      <c r="B19">
-        <v>200</v>
-      </c>
-      <c r="C19">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>304</v>
-      </c>
-      <c r="B20">
-        <v>200</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>347</v>
-      </c>
-      <c r="B21">
-        <v>240</v>
-      </c>
-      <c r="C21">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>84</v>
-      </c>
-      <c r="B22">
-        <v>50</v>
-      </c>
-      <c r="C22">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>95</v>
-      </c>
-      <c r="B23">
-        <v>60</v>
-      </c>
-      <c r="C23">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>126</v>
-      </c>
-      <c r="B24">
-        <v>70</v>
-      </c>
-      <c r="C24">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
